--- a/MoodPlaylist.xlsx
+++ b/MoodPlaylist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spotify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365D2F6D-5D22-468C-8E5C-DA0B54AE1FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0513E8E-D3C0-423F-96EE-9AB20938A68A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
-    <t>情調</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,6 +541,10 @@
   </si>
   <si>
     <t>Country music 101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +876,7 @@
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -888,594 +888,594 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/MoodPlaylist.xlsx
+++ b/MoodPlaylist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spotify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0513E8E-D3C0-423F-96EE-9AB20938A68A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A00BA5D-F6E8-4DA4-8613-87534BBAF89A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>

--- a/MoodPlaylist.xlsx
+++ b/MoodPlaylist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spotify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A00BA5D-F6E8-4DA4-8613-87534BBAF89A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C28C63A-59B4-4A87-A3F7-E2944D690FA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,13 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DWYfYI76iYkKK</t>
-  </si>
-  <si>
-    <t>周末傾聽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DWV3IJ2kse1M3</t>
   </si>
   <si>
@@ -90,13 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DX74DDhiuyXIl</t>
-  </si>
-  <si>
-    <t>返家傾聽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DX6AozTSWwAdQ</t>
   </si>
   <si>
@@ -159,14 +145,6 @@
     <t>spotify:playlist:37i9dQZF1DWSf2RDTDayIx</t>
   </si>
   <si>
-    <t>Happy Hits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Happy Beats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DWSRc3WJklgBs</t>
   </si>
   <si>
@@ -195,13 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DX7cZxYLqLUJl</t>
-  </si>
-  <si>
-    <t>Wake Up Gently</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DXca8AyWK6Y7g</t>
   </si>
   <si>
@@ -265,17 +236,6 @@
     <t>spotify:playlist:37i9dQZF1DX0UrRvztWcAU</t>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DX3lmnsqvYpgD</t>
-  </si>
-  <si>
-    <t>Wake Up Happy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輕鬆聽覺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DXarebqD2nAVg</t>
   </si>
   <si>
@@ -300,10 +260,6 @@
     <t>spotify:playlist:37i9dQZF1DWVrtsSlLKzro</t>
   </si>
   <si>
-    <t>Sad Beats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DX4E3UdUs7fUx</t>
   </si>
   <si>
@@ -332,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sad Indie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DWVV27DiNWxkR</t>
   </si>
   <si>
@@ -346,27 +298,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天籟美聲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spotify:playlist:37i9dQZF1DWXxk55r8Lbgr</t>
-  </si>
-  <si>
-    <t>spotify:playlist:37i9dQZF1DWUvQoIOFMFUT</t>
-  </si>
-  <si>
-    <t>The Stress Buster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DWSkMjlBZAZ07</t>
   </si>
   <si>
-    <t>Happy Folk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Deep Dark Indie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,13 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DX3ND264N08pv</t>
-  </si>
-  <si>
-    <t>Rage Beats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DX1tW4VlEfDSS</t>
   </si>
   <si>
@@ -426,24 +353,10 @@
     <t>spotify:playlist:37i9dQZF1DX2pSTOxoPbx9</t>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DX6FpuSJJgdDF</t>
-  </si>
-  <si>
-    <t>Smooth Morning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dark and Stormy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DX4H7FFUM2osB</t>
-  </si>
-  <si>
-    <t>Winter Sounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DX4ALYsOGumV8</t>
   </si>
   <si>
@@ -465,13 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DX7QHBSGN4rag</t>
-  </si>
-  <si>
-    <t>寧靜的早光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DWSEMER0I7qzl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,6 +452,205 @@
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DWVs8I62NcHks</t>
+  </si>
+  <si>
+    <t>Disney Favorites</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DWZhxU4AiByxO</t>
+  </si>
+  <si>
+    <t>Pop 4 Kids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX4xuWVBs4FgJ</t>
+  </si>
+  <si>
+    <t>Dinner with Friends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DWZVU32KsYGUK</t>
+  </si>
+  <si>
+    <t>Piano Dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DWU6MDxlH7Sr1</t>
+  </si>
+  <si>
+    <t>Cocktail Jazz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DXatMjChPKgBk</t>
+  </si>
+  <si>
+    <t>Dinner Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DWVleyMkaelTd</t>
+  </si>
+  <si>
+    <t>Bossa Nova Dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX6ZiG5Dz8cUM</t>
+  </si>
+  <si>
+    <t>Dinner For Two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DWTALrdBtcXjw</t>
+  </si>
+  <si>
+    <t>Jazzy Dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DXab8DipvnuNU</t>
+  </si>
+  <si>
+    <t>The cookout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DXbvE0SE0Cczh</t>
+  </si>
+  <si>
+    <t>Jukebox Joint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX4kJGZhtnOIh</t>
+  </si>
+  <si>
+    <t>Mellow Dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX5kUFcXez8kt</t>
+  </si>
+  <si>
+    <t>Claasical Intimates Dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX44AF5xq04Oh</t>
+  </si>
+  <si>
+    <t>Reggae BBQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色戀人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX6Q1z7sTe5Yj</t>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX1lqIeZWgikv</t>
+  </si>
+  <si>
+    <t>浪漫聖誕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX0Yxoavh5qJV</t>
+  </si>
+  <si>
+    <t>Christmas Hits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX0A8zVl7p82B</t>
+  </si>
+  <si>
+    <t>Christmas Pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DXbPHTEEyQ6Hv</t>
+  </si>
+  <si>
+    <t>Christmas Peaceful Piano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX0HWhBzpBj05</t>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX26MMm9GTjCc</t>
+  </si>
+  <si>
+    <t>Christmas party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX0MuOvUqmxDz</t>
+  </si>
+  <si>
+    <t>Country Christmas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DWU0r6G8OGirN</t>
+  </si>
+  <si>
+    <t>Cozy Christmas Eve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christmas Choir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX6FnQY7eQxRt</t>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DX6YV6aDRPWY2</t>
+  </si>
+  <si>
+    <t>All I Want For Christmas Is You</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify:playlist:37i9dQZF1DWSYpxhyokHiR</t>
+  </si>
+  <si>
+    <t>A Popera Christmas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD Beats</t>
+  </si>
+  <si>
+    <t>SAD Indie</t>
+  </si>
+  <si>
+    <t>HAPPY Hits</t>
+  </si>
+  <si>
+    <t>HAPPY Beats</t>
+  </si>
+  <si>
+    <t>Wake Up HAPPY</t>
+  </si>
+  <si>
+    <t>HAPPY Folk</t>
+  </si>
+  <si>
+    <t>HAPPY Holidays</t>
   </si>
 </sst>
 </file>
@@ -873,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -888,7 +993,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -920,7 +1025,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -944,18 +1049,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -976,7 +1081,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -984,23 +1089,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -1008,7 +1113,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
@@ -1016,7 +1121,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -1032,7 +1137,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
@@ -1040,442 +1145,570 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>145</v>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/MoodPlaylist.xlsx
+++ b/MoodPlaylist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spotify\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C28C63A-59B4-4A87-A3F7-E2944D690FA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0389F2-9323-4D05-B62E-74D62582A51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="171">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DX71sJP2OzuBP</t>
-  </si>
-  <si>
-    <t>上班傾聽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DX8gS5vh05dnc</t>
   </si>
   <si>
@@ -69,20 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DX7pGtIaS1UoB</t>
-  </si>
-  <si>
-    <t>暖心情歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spotify:playlist:37i9dQZF1DWV3IJ2kse1M3</t>
-  </si>
-  <si>
-    <t>悲傷釋放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DX6AozTSWwAdQ</t>
   </si>
   <si>
@@ -198,13 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DX4NBorsTLJKk</t>
-  </si>
-  <si>
-    <t>雨中旋律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DWYiR2Uqcon0X</t>
   </si>
   <si>
@@ -212,13 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DXcklpCH5705e</t>
-  </si>
-  <si>
-    <t>夜了 放慢腳步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DX2sUQwD7tbmL</t>
   </si>
   <si>
@@ -274,13 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spotify:playlist:37i9dQZF1DXbI4F83lVDYN</t>
-  </si>
-  <si>
-    <t>夏天海灘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotify:playlist:37i9dQZF1DX9XIFQuFvzM4</t>
   </si>
   <si>
@@ -632,12 +590,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SAD</t>
+  </si>
+  <si>
     <t>SAD Beats</t>
   </si>
   <si>
     <t>SAD Indie</t>
   </si>
   <si>
+    <t>HAPPY</t>
+  </si>
+  <si>
     <t>HAPPY Hits</t>
   </si>
   <si>
@@ -651,6 +615,10 @@
   </si>
   <si>
     <t>HAPPY Holidays</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -978,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -991,724 +959,928 @@
     <col min="3" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>171</v>
+      <c r="C84" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
